--- a/fw-cloud-easyexcel/fw-cloud-easyexcel-read/src/test/resources/sysUser/user.xlsx
+++ b/fw-cloud-easyexcel/fw-cloud-easyexcel-read/src/test/resources/sysUser/user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>字符串标题</t>
   </si>
@@ -57,51 +57,51 @@
   </si>
   <si>
     <t>用户编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>启用标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YHBH01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YHBH02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YHBH03</t>
@@ -129,16 +129,134 @@
   </si>
   <si>
     <t>http://att3.citysbs.com/200x200/hangzhou/2020/04/15/11/dd6719bd4287d9efd49434c43563a032_v2_.jpg</t>
+  </si>
+  <si>
+    <t>123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>124@qq.com</t>
+  </si>
+  <si>
+    <t>125@qq.com</t>
+  </si>
+  <si>
+    <t>126@qq.com</t>
+  </si>
+  <si>
+    <t>127@qq.com</t>
+  </si>
+  <si>
+    <t>128@qq.com</t>
+  </si>
+  <si>
+    <t>129@qq.com</t>
+  </si>
+  <si>
+    <t>130@qq.com</t>
+  </si>
+  <si>
+    <t>131@qq.com</t>
+  </si>
+  <si>
+    <t>132@qq.com</t>
+  </si>
+  <si>
+    <t>fwcloud1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwcloud2</t>
+  </si>
+  <si>
+    <t>fwcloud3</t>
+  </si>
+  <si>
+    <t>fwcloud4</t>
+  </si>
+  <si>
+    <t>fwcloud5</t>
+  </si>
+  <si>
+    <t>fwcloud6</t>
+  </si>
+  <si>
+    <t>fwcloud7</t>
+  </si>
+  <si>
+    <t>fwcloud8</t>
+  </si>
+  <si>
+    <t>fwcloud9</t>
+  </si>
+  <si>
+    <t>fwcloud10</t>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张苞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,12 +285,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,9 +303,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +611,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,6 +619,7 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -535,8 +661,29 @@
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>11111</v>
+      </c>
+      <c r="H2">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -546,8 +693,29 @@
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>11111</v>
+      </c>
+      <c r="H3">
+        <v>1111111111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -557,8 +725,29 @@
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>11111</v>
+      </c>
+      <c r="H4">
+        <v>1111111111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -568,8 +757,29 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>11111</v>
+      </c>
+      <c r="H5">
+        <v>1111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -579,8 +789,29 @@
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>11111</v>
+      </c>
+      <c r="H6">
+        <v>1111111111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -590,8 +821,29 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>11111</v>
+      </c>
+      <c r="H7">
+        <v>1111111111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -601,8 +853,29 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>7</v>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>11111</v>
+      </c>
+      <c r="H8">
+        <v>1111111111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -612,8 +885,29 @@
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>11111</v>
+      </c>
+      <c r="H9">
+        <v>1111111111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -623,8 +917,29 @@
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
-        <v>9</v>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>11111</v>
+      </c>
+      <c r="H10">
+        <v>1111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -634,14 +949,39 @@
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>11111</v>
+      </c>
+      <c r="H11">
+        <v>1111111111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C11" r:id="rId2" display="123@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -777,7 +1117,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/fw-cloud-easyexcel/fw-cloud-easyexcel-read/src/test/resources/sysUser/user.xlsx
+++ b/fw-cloud-easyexcel/fw-cloud-easyexcel-read/src/test/resources/sysUser/user.xlsx
@@ -4,57 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
-  <si>
-    <t>字符串标题</t>
-  </si>
-  <si>
-    <t>日期标题</t>
-  </si>
-  <si>
-    <t>数字标题</t>
-  </si>
-  <si>
-    <t>表2字符串0</t>
-  </si>
-  <si>
-    <t>表2字符串1</t>
-  </si>
-  <si>
-    <t>表2字符串2</t>
-  </si>
-  <si>
-    <t>表2字符串3</t>
-  </si>
-  <si>
-    <t>表2字符串4</t>
-  </si>
-  <si>
-    <t>表2字符串5</t>
-  </si>
-  <si>
-    <t>表2字符串6</t>
-  </si>
-  <si>
-    <t>表2字符串7</t>
-  </si>
-  <si>
-    <t>表2字符串8</t>
-  </si>
-  <si>
-    <t>表2字符串9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>用户编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,6 +202,286 @@
   <si>
     <t>未删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YHBH11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YHBH12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YHBH13</t>
+  </si>
+  <si>
+    <t>YHBH14</t>
+  </si>
+  <si>
+    <t>YHBH15</t>
+  </si>
+  <si>
+    <t>YHBH16</t>
+  </si>
+  <si>
+    <t>YHBH17</t>
+  </si>
+  <si>
+    <t>YHBH18</t>
+  </si>
+  <si>
+    <t>YHBH19</t>
+  </si>
+  <si>
+    <t>YHBH20</t>
+  </si>
+  <si>
+    <t>133@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>134@qq.com</t>
+  </si>
+  <si>
+    <t>135@qq.com</t>
+  </si>
+  <si>
+    <t>136@qq.com</t>
+  </si>
+  <si>
+    <t>137@qq.com</t>
+  </si>
+  <si>
+    <t>138@qq.com</t>
+  </si>
+  <si>
+    <t>139@qq.com</t>
+  </si>
+  <si>
+    <t>140@qq.com</t>
+  </si>
+  <si>
+    <t>141@qq.com</t>
+  </si>
+  <si>
+    <t>142@qq.com</t>
+  </si>
+  <si>
+    <t>fwcloud11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwcloud12</t>
+  </si>
+  <si>
+    <t>fwcloud13</t>
+  </si>
+  <si>
+    <t>fwcloud14</t>
+  </si>
+  <si>
+    <t>fwcloud15</t>
+  </si>
+  <si>
+    <t>fwcloud16</t>
+  </si>
+  <si>
+    <t>fwcloud17</t>
+  </si>
+  <si>
+    <t>fwcloud18</t>
+  </si>
+  <si>
+    <t>fwcloud19</t>
+  </si>
+  <si>
+    <t>fwcloud20</t>
+  </si>
+  <si>
+    <t>YHBH21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YHBH22</t>
+  </si>
+  <si>
+    <t>YHBH23</t>
+  </si>
+  <si>
+    <t>YHBH24</t>
+  </si>
+  <si>
+    <t>YHBH25</t>
+  </si>
+  <si>
+    <t>YHBH26</t>
+  </si>
+  <si>
+    <t>YHBH27</t>
+  </si>
+  <si>
+    <t>YHBH28</t>
+  </si>
+  <si>
+    <t>YHBH29</t>
+  </si>
+  <si>
+    <t>YHBH30</t>
+  </si>
+  <si>
+    <t>144@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>145@qq.com</t>
+  </si>
+  <si>
+    <t>146@qq.com</t>
+  </si>
+  <si>
+    <t>147@qq.com</t>
+  </si>
+  <si>
+    <t>148@qq.com</t>
+  </si>
+  <si>
+    <t>149@qq.com</t>
+  </si>
+  <si>
+    <t>150@qq.com</t>
+  </si>
+  <si>
+    <t>151@qq.com</t>
+  </si>
+  <si>
+    <t>152@qq.com</t>
+  </si>
+  <si>
+    <t>153@qq.com</t>
+  </si>
+  <si>
+    <t>fwcloud21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwcloud22</t>
+  </si>
+  <si>
+    <t>fwcloud23</t>
+  </si>
+  <si>
+    <t>fwcloud24</t>
+  </si>
+  <si>
+    <t>fwcloud25</t>
+  </si>
+  <si>
+    <t>fwcloud26</t>
+  </si>
+  <si>
+    <t>fwcloud27</t>
+  </si>
+  <si>
+    <t>fwcloud28</t>
+  </si>
+  <si>
+    <t>fwcloud29</t>
+  </si>
+  <si>
+    <t>fwcloud30</t>
+  </si>
+  <si>
+    <t>YHBH31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YHBH32</t>
+  </si>
+  <si>
+    <t>YHBH33</t>
+  </si>
+  <si>
+    <t>YHBH34</t>
+  </si>
+  <si>
+    <t>YHBH35</t>
+  </si>
+  <si>
+    <t>YHBH36</t>
+  </si>
+  <si>
+    <t>YHBH37</t>
+  </si>
+  <si>
+    <t>YHBH38</t>
+  </si>
+  <si>
+    <t>YHBH39</t>
+  </si>
+  <si>
+    <t>YHBH40</t>
+  </si>
+  <si>
+    <t>154@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>155@qq.com</t>
+  </si>
+  <si>
+    <t>156@qq.com</t>
+  </si>
+  <si>
+    <t>157@qq.com</t>
+  </si>
+  <si>
+    <t>158@qq.com</t>
+  </si>
+  <si>
+    <t>159@qq.com</t>
+  </si>
+  <si>
+    <t>160@qq.com</t>
+  </si>
+  <si>
+    <t>161@qq.com</t>
+  </si>
+  <si>
+    <t>162@qq.com</t>
+  </si>
+  <si>
+    <t>163@qq.com</t>
+  </si>
+  <si>
+    <t>fwcloud31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwcloud32</t>
+  </si>
+  <si>
+    <t>fwcloud33</t>
+  </si>
+  <si>
+    <t>fwcloud34</t>
+  </si>
+  <si>
+    <t>fwcloud35</t>
+  </si>
+  <si>
+    <t>fwcloud36</t>
+  </si>
+  <si>
+    <t>fwcloud37</t>
+  </si>
+  <si>
+    <t>fwcloud38</t>
+  </si>
+  <si>
+    <t>fwcloud39</t>
+  </si>
+  <si>
+    <t>fwcloud40</t>
   </si>
 </sst>
 </file>
@@ -610,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,54 +867,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>11111</v>
@@ -680,30 +923,30 @@
         <v>1111111111</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>11111</v>
@@ -712,30 +955,30 @@
         <v>1111111111</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>11111</v>
@@ -744,30 +987,30 @@
         <v>1111111111</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>11111</v>
@@ -776,30 +1019,30 @@
         <v>1111111111</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>11111</v>
@@ -808,30 +1051,30 @@
         <v>1111111111</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>11111</v>
@@ -840,30 +1083,30 @@
         <v>1111111111</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>11111</v>
@@ -872,30 +1115,30 @@
         <v>1111111111</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>11111</v>
@@ -904,30 +1147,30 @@
         <v>1111111111</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>11111</v>
@@ -936,30 +1179,30 @@
         <v>1111111111</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>11111</v>
@@ -968,10 +1211,10 @@
         <v>1111111111</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -987,15 +1230,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,119 +1255,1104 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>11111</v>
+      </c>
+      <c r="H2">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43832.042372685202</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>11111</v>
+      </c>
+      <c r="H3">
+        <v>1111111111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43833.042372685202</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>11111</v>
+      </c>
+      <c r="H4">
+        <v>1111111111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43834.042372685202</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>11111</v>
+      </c>
+      <c r="H5">
+        <v>1111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43835.042372685202</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>11111</v>
+      </c>
+      <c r="H6">
+        <v>1111111111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43836.042372685202</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>11111</v>
+      </c>
+      <c r="H7">
+        <v>1111111111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43837.042372685202</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>11111</v>
+      </c>
+      <c r="H8">
+        <v>1111111111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43838.042372685202</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>11111</v>
+      </c>
+      <c r="H9">
+        <v>1111111111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43839.042372685202</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>11111</v>
+      </c>
+      <c r="H10">
+        <v>1111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43840.042372685202</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>11111</v>
+      </c>
+      <c r="H11">
+        <v>1111111111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C11" r:id="rId2" display="133@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>11111</v>
+      </c>
+      <c r="H2">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>11111</v>
+      </c>
+      <c r="H3">
+        <v>1111111111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>11111</v>
+      </c>
+      <c r="H4">
+        <v>1111111111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>11111</v>
+      </c>
+      <c r="H5">
+        <v>1111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>11111</v>
+      </c>
+      <c r="H6">
+        <v>1111111111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>11111</v>
+      </c>
+      <c r="H7">
+        <v>1111111111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>11111</v>
+      </c>
+      <c r="H8">
+        <v>1111111111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>11111</v>
+      </c>
+      <c r="H9">
+        <v>1111111111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>11111</v>
+      </c>
+      <c r="H10">
+        <v>1111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>11111</v>
+      </c>
+      <c r="H11">
+        <v>1111111111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C11" r:id="rId2" display="144@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>11111</v>
+      </c>
+      <c r="H2">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>11111</v>
+      </c>
+      <c r="H3">
+        <v>1111111111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>11111</v>
+      </c>
+      <c r="H4">
+        <v>1111111111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>11111</v>
+      </c>
+      <c r="H5">
+        <v>1111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>11111</v>
+      </c>
+      <c r="H6">
+        <v>1111111111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>11111</v>
+      </c>
+      <c r="H7">
+        <v>1111111111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>11111</v>
+      </c>
+      <c r="H8">
+        <v>1111111111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>11111</v>
+      </c>
+      <c r="H9">
+        <v>1111111111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>11111</v>
+      </c>
+      <c r="H10">
+        <v>1111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>11111</v>
+      </c>
+      <c r="H11">
+        <v>1111111111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C11" r:id="rId2" display="154@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>